--- a/visOgram.xlsx
+++ b/visOgram.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="0" windowWidth="21580" windowHeight="21920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-40" yWindow="0" windowWidth="20580" windowHeight="22560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="202">
   <si>
     <t>RELAY</t>
   </si>
@@ -563,6 +564,69 @@
   </si>
   <si>
     <t>stuff are</t>
+  </si>
+  <si>
+    <t>as_spread</t>
+  </si>
+  <si>
+    <t>osv_r_nodes</t>
+  </si>
+  <si>
+    <t>osv_r_bwa</t>
+  </si>
+  <si>
+    <t>osv_r_bwc</t>
+  </si>
+  <si>
+    <t>osv_r_pbr</t>
+  </si>
+  <si>
+    <t>tsv_r_nodes</t>
+  </si>
+  <si>
+    <t>tsv_r_bwa</t>
+  </si>
+  <si>
+    <t>tsv_r_bwc</t>
+  </si>
+  <si>
+    <t>tsv_r_pbr</t>
+  </si>
+  <si>
+    <t>fast_r_nodes</t>
+  </si>
+  <si>
+    <t>fast_r_bwa</t>
+  </si>
+  <si>
+    <t>fast_r_bwc</t>
+  </si>
+  <si>
+    <t>fast_r_pbr</t>
+  </si>
+  <si>
+    <t>stable_r_nodes</t>
+  </si>
+  <si>
+    <t>stable_r_bwa</t>
+  </si>
+  <si>
+    <t>stable_r_bwc</t>
+  </si>
+  <si>
+    <t>stable_r_pbr</t>
+  </si>
+  <si>
+    <t>as_r_nodes</t>
+  </si>
+  <si>
+    <t>as_r_bwa</t>
+  </si>
+  <si>
+    <t>as_r_bwc</t>
+  </si>
+  <si>
+    <t>as_r_pbr</t>
   </si>
 </sst>
 </file>
@@ -608,7 +672,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,6 +835,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -781,7 +857,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="123">
+  <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -905,8 +981,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -940,8 +1046,10 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="123">
+  <cellStyles count="153">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1003,6 +1111,21 @@
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1064,6 +1187,21 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2174,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2875,72 +3013,72 @@
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="C45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="2" t="s">
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K45" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="C45" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H45" s="14"/>
-      <c r="K45" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="C46" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="K46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="C47" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="D46" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H46" s="14"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="C47" t="s">
-        <v>20</v>
       </c>
       <c r="D47" t="s">
         <v>53</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="H47" s="14"/>
     </row>
@@ -3340,7 +3478,7 @@
     </row>
     <row r="73" spans="2:9">
       <c r="C73" s="25" t="s">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="D73" t="s">
         <v>81</v>
@@ -3680,7 +3818,7 @@
     </row>
     <row r="99" spans="3:8">
       <c r="C99" s="28"/>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F99" s="3" t="s">
@@ -3698,6 +3836,1670 @@
       <c r="F100" s="28"/>
       <c r="G100" s="28"/>
       <c r="H100" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="11" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="F19" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="F20" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="F21" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="B49" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="B56" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G64" s="14"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="B65" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G65" s="14"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="B66" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="B67" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="B69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="B70" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="B71" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="B73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="I73" t="s">
+        <v>109</v>
+      </c>
+      <c r="J73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="B75" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="B76" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" t="s">
+        <v>59</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="B77" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="B78" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="B79" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I79" t="s">
+        <v>25</v>
+      </c>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="B80" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80" t="s">
+        <v>40</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="B82" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+      <c r="J82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="B83" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="B84" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="B85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+      <c r="E86" t="s">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="B88" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E88" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="B89" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" t="s">
+        <v>59</v>
+      </c>
+      <c r="E89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="B90" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="B91" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="B92" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="B93" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="B94" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E94" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="B95" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E95" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="B96" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E96" t="s">
+        <v>48</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C97" t="s">
+        <v>81</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H97" s="9"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="B98" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" t="s">
+        <v>59</v>
+      </c>
+      <c r="E98" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H98" s="9"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="B99" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" t="s">
+        <v>59</v>
+      </c>
+      <c r="E99" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H99" s="9"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="B100" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" t="s">
+        <v>52</v>
+      </c>
+      <c r="E100" t="s">
+        <v>48</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H100" s="9"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="B101" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C101" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H101" s="9"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="B103" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" t="s">
+        <v>147</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="B105" s="28"/>
+      <c r="C105" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G105" s="28"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="B106" s="28"/>
+      <c r="C106" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G106" s="28"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="B107" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" s="28"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="B108" s="28"/>
+      <c r="C108" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E108" t="s">
+        <v>48</v>
+      </c>
+      <c r="F108" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G108" s="28"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" s="28"/>
+      <c r="C109" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>48</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G109" s="28"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110" s="28"/>
+      <c r="C110" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G110" s="28"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="B111" s="28"/>
+      <c r="C111" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G111" s="28"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" s="28"/>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G112" s="28"/>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="28"/>
+      <c r="C113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G113" s="28"/>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="28"/>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G114" s="28"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="28"/>
+      <c r="C115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G115" s="28"/>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="28"/>
+      <c r="C116" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G116" s="28"/>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="28"/>
+      <c r="C117" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G117" s="28"/>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="28"/>
+      <c r="C118" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G118" s="28"/>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="28"/>
+      <c r="C119" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G119" s="28"/>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="28"/>
+      <c r="C120" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G120" s="28"/>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="28"/>
+      <c r="C121" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G121" s="28"/>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="28"/>
+      <c r="C122" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F122" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G122" s="28"/>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="28"/>
+      <c r="C123" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F123" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G123" s="28"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/visOgram.xlsx
+++ b/visOgram.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="0" windowWidth="20580" windowHeight="22560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23880" windowHeight="23560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="232">
   <si>
     <t>RELAY</t>
   </si>
@@ -167,6 +168,9 @@
     <t>add up</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>sum...s</t>
   </si>
   <si>
@@ -341,6 +345,9 @@
     <t>guard</t>
   </si>
   <si>
+    <t>NODE</t>
+  </si>
+  <si>
     <t>Relay</t>
   </si>
   <si>
@@ -627,6 +634,90 @@
   </si>
   <si>
     <t>as_r_pbr</t>
+  </si>
+  <si>
+    <t>stuff are arrays</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>BWC</t>
+  </si>
+  <si>
+    <t>PROB</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>STABLE</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>[osv:#]</t>
+  </si>
+  <si>
+    <t>[tsv:#]</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>[as:#]</t>
+  </si>
+  <si>
+    <t>MISC</t>
+  </si>
+  <si>
+    <t>[1...10:#]</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>[v:#]</t>
+  </si>
+  <si>
+    <t>[cc :</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>OSV</t>
+  </si>
+  <si>
+    <t>TSV</t>
   </si>
 </sst>
 </file>
@@ -848,7 +939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -856,8 +947,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1011,8 +1182,82 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1048,8 +1293,25 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="153">
+  <cellStyles count="227">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1126,6 +1388,43 @@
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1202,6 +1501,43 @@
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1548,31 +1884,31 @@
   <sheetData>
     <row r="1" spans="2:11" s="11" customFormat="1">
       <c r="B1" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="2:11">
@@ -1585,17 +1921,17 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" t="s">
@@ -1604,23 +1940,23 @@
     </row>
     <row r="4" spans="2:11">
       <c r="C4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -1628,17 +1964,17 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -1646,20 +1982,20 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" s="3">
         <v>100</v>
       </c>
       <c r="H6" s="3"/>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -1667,19 +2003,19 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -1687,24 +2023,24 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I9" s="3"/>
     </row>
@@ -1730,19 +2066,19 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s">
         <v>43</v>
@@ -1756,23 +2092,23 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -1780,16 +2116,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="2" t="s">
@@ -1804,16 +2140,16 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="2" t="s">
@@ -1828,16 +2164,16 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="2" t="s">
@@ -1849,86 +2185,86 @@
     </row>
     <row r="17" spans="2:11">
       <c r="C17" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="C18" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="C19" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="C20" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -1936,16 +2272,16 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -1954,16 +2290,16 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -1972,16 +2308,16 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -1998,42 +2334,42 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="C27" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J27" t="s">
         <v>24</v>
@@ -2041,22 +2377,22 @@
     </row>
     <row r="28" spans="2:11">
       <c r="C28" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J28" t="s">
         <v>25</v>
@@ -2065,22 +2401,22 @@
     </row>
     <row r="29" spans="2:11">
       <c r="C29" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
         <v>40</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s">
         <v>26</v>
@@ -2097,16 +2433,16 @@
         <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:10">
@@ -2114,7 +2450,7 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
@@ -2124,30 +2460,30 @@
     </row>
     <row r="34" spans="2:10">
       <c r="C34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
         <v>41</v>
       </c>
       <c r="J34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="C35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
         <v>40</v>
       </c>
       <c r="J35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -2165,7 +2501,7 @@
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
@@ -2176,7 +2512,7 @@
         <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -2189,7 +2525,7 @@
     </row>
     <row r="42" spans="2:10">
       <c r="C42" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D42" s="12"/>
     </row>
@@ -2250,25 +2586,25 @@
     </row>
     <row r="51" spans="3:11">
       <c r="C51" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D51" s="12"/>
     </row>
     <row r="52" spans="3:11">
       <c r="C52" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D52" s="12"/>
     </row>
     <row r="53" spans="3:11">
       <c r="C53" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D53" s="12"/>
     </row>
     <row r="54" spans="3:11">
       <c r="C54" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D54" s="12"/>
     </row>
@@ -2291,7 +2627,7 @@
     </row>
     <row r="58" spans="3:11">
       <c r="C58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
@@ -2310,1532 +2646,1498 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K100"/>
+  <dimension ref="B1:K95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="3.5" customWidth="1"/>
     <col min="9" max="9" width="27.83203125" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="11" customFormat="1">
       <c r="B1" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="C3" s="27" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="C4" s="27" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="C5" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="B5" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="23" t="s">
-        <v>178</v>
+      <c r="G5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="22" t="s">
-        <v>162</v>
+      <c r="C6" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="C7" s="1" t="s">
-        <v>120</v>
+      <c r="C7" s="31" t="s">
+        <v>124</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" t="s">
-        <v>107</v>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="C8" s="31" t="s">
-        <v>121</v>
+      <c r="C8" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="C9" s="31" t="s">
-        <v>122</v>
+      <c r="C9" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="C10" s="7" t="s">
-        <v>135</v>
+      <c r="B10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="C11" s="7" t="s">
-        <v>123</v>
+      <c r="C11" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="C12" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="C13" s="1" t="s">
-        <v>106</v>
+      <c r="C13" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" t="s">
-        <v>34</v>
+        <v>74</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="C14" s="31" t="s">
-        <v>113</v>
+      <c r="C14" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="C15" s="31" t="s">
-        <v>112</v>
+      <c r="C15" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="C16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11">
-      <c r="C17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11">
-      <c r="C18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11">
-      <c r="C19" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="3:11">
-      <c r="C20" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H20" s="14"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="30" t="s">
-        <v>168</v>
+      <c r="C21" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="14" t="s">
         <v>80</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
+      <c r="C22" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" t="s">
-        <v>105</v>
-      </c>
+      <c r="G22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="3"/>
+      <c r="C23" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G23" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H23" s="14"/>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="3:11">
-      <c r="C24" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="14" t="s">
-        <v>79</v>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="21" t="s">
-        <v>143</v>
+      <c r="C25" s="30" t="s">
+        <v>173</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="3:11">
-      <c r="C27" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H27" s="14"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="28" spans="3:11">
-      <c r="C28" s="30" t="s">
-        <v>171</v>
+      <c r="C28" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="14" t="s">
         <v>80</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="3:11">
-      <c r="C29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>54</v>
+      <c r="C29" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29" t="s">
-        <v>11</v>
-      </c>
+      <c r="G29" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="3"/>
+      <c r="C30" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G30" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H30" s="14"/>
-      <c r="I30" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="3:11">
-      <c r="C31" s="21" t="s">
-        <v>138</v>
+      <c r="C31" s="30" t="s">
+        <v>175</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="3:11">
-      <c r="C32" s="21" t="s">
-        <v>142</v>
+      <c r="C32" s="30" t="s">
+        <v>176</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="C33" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="C34" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C34" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H34" s="14"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="C35" s="30" t="s">
-        <v>174</v>
+      <c r="C35" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="14" t="s">
         <v>80</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
-        <v>54</v>
+      <c r="C36" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K36" t="s">
-        <v>13</v>
-      </c>
+      <c r="G36" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="C37" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="3"/>
+      <c r="C37" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G37" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H37" s="14"/>
-      <c r="I37" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="C38" s="21" t="s">
-        <v>139</v>
+      <c r="C38" s="30" t="s">
+        <v>178</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="C39" s="21" t="s">
-        <v>141</v>
+      <c r="C39" s="30" t="s">
+        <v>179</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="2:11">
       <c r="C40" s="30" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="C41" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>75</v>
+      <c r="C41" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>79</v>
+        <v>39</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="H41" s="14"/>
-      <c r="I41" s="3"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="C42" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="3"/>
+      <c r="C42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="43" spans="2:11">
-      <c r="C43" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="14" t="s">
-        <v>79</v>
+      <c r="C43" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="H43" s="14"/>
-      <c r="I43" s="3"/>
+      <c r="K43" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="44" spans="2:11">
       <c r="C44" s="12" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>80</v>
       </c>
       <c r="H44" s="14"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="C45" s="2" t="s">
-        <v>14</v>
+      <c r="B45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H45" s="3"/>
-      <c r="I45" s="2" t="s">
-        <v>47</v>
+      <c r="J45" t="s">
+        <v>111</v>
       </c>
       <c r="K45" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="2:11">
-      <c r="C46" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>80</v>
+      <c r="C46" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="H46" s="14"/>
-      <c r="K46" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="47" spans="2:11">
-      <c r="C47" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="C48" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="C49" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="C50" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50" s="14"/>
+      <c r="I50" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="C51" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51" s="14"/>
+      <c r="I51" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="C52" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" t="s">
         <v>53</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H47" s="14"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="C49" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>111</v>
+      </c>
+      <c r="K53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="C54" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="C55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="K55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="C56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="J49" t="s">
-        <v>109</v>
-      </c>
-      <c r="K49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="C50" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H50" s="14"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="C51" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51" t="s">
-        <v>48</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H51" s="14"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="C52" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="F56" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="C57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="C61" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I61" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E52" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="C53" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H53" s="14"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="C54" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" t="s">
-        <v>81</v>
-      </c>
-      <c r="F54" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H54" s="14"/>
-      <c r="I54" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="C55" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H55" s="14"/>
-      <c r="I55" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="C56" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="J56" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="C58" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" t="s">
-        <v>109</v>
-      </c>
-      <c r="K58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="C59" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="C60" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" t="s">
-        <v>52</v>
-      </c>
-      <c r="E60" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="C61" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" t="s">
-        <v>53</v>
-      </c>
-      <c r="F61" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="J61" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="62" spans="2:11">
-      <c r="C62" t="s">
-        <v>98</v>
+      <c r="C62" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
-      </c>
-      <c r="J62" t="s">
-        <v>91</v>
+        <v>49</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="6" t="s">
-        <v>124</v>
+      <c r="C63" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" t="s">
+        <v>49</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="2:11">
-      <c r="C64" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" t="s">
-        <v>59</v>
+      <c r="C64" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="2:9">
-      <c r="C65" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D65" t="s">
-        <v>59</v>
+      <c r="C65" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="2:9">
-      <c r="C66" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" t="s">
-        <v>59</v>
+      <c r="C66" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="F66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="2:9">
-      <c r="C67" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" t="s">
-        <v>59</v>
+      <c r="C67" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="C68" s="26" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="2:9">
-      <c r="C69" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F69" t="s">
-        <v>48</v>
+      <c r="C69" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>159</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I69" s="9"/>
     </row>
     <row r="70" spans="2:9">
-      <c r="C70" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>59</v>
+      <c r="C70" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" t="s">
+        <v>60</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>134</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I70" s="9"/>
     </row>
     <row r="71" spans="2:9">
-      <c r="C71" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>59</v>
+      <c r="C71" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" t="s">
+        <v>60</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>160</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I71" s="9"/>
     </row>
     <row r="72" spans="2:9">
-      <c r="C72" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>59</v>
+      <c r="C72" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" t="s">
+        <v>53</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>161</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I72" s="9"/>
     </row>
     <row r="73" spans="2:9">
       <c r="C73" s="25" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D73" t="s">
-        <v>81</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="F73" t="s">
+        <v>49</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="2:9">
-      <c r="C74" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D74" t="s">
-        <v>59</v>
-      </c>
-      <c r="F74" t="s">
-        <v>48</v>
-      </c>
-      <c r="G74" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="C75" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75" t="s">
-        <v>59</v>
-      </c>
-      <c r="F75" t="s">
-        <v>48</v>
-      </c>
-      <c r="G75" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I75" s="9"/>
-    </row>
     <row r="76" spans="2:9">
-      <c r="C76" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="D76" t="s">
-        <v>52</v>
-      </c>
-      <c r="F76" t="s">
-        <v>48</v>
-      </c>
-      <c r="G76" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I76" s="9"/>
+      <c r="B76" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="H76" s="28"/>
     </row>
     <row r="77" spans="2:9">
-      <c r="C77" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D77" t="s">
-        <v>52</v>
-      </c>
-      <c r="F77" t="s">
-        <v>48</v>
-      </c>
-      <c r="G77" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I77" s="9"/>
+      <c r="C77" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H77" s="28"/>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="C78" s="28"/>
+      <c r="D78" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H78" s="28"/>
     </row>
     <row r="79" spans="2:9">
-      <c r="C79" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" t="s">
-        <v>147</v>
+      <c r="C79" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F79" t="s">
+        <v>49</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>148</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H79" s="28"/>
     </row>
     <row r="80" spans="2:9">
-      <c r="C80" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>49</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>81</v>
+      </c>
       <c r="H80" s="28"/>
     </row>
     <row r="81" spans="3:8">
       <c r="C81" s="28"/>
-      <c r="D81" s="8" t="s">
-        <v>32</v>
+      <c r="D81" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H81" s="28"/>
     </row>
     <row r="82" spans="3:8">
       <c r="C82" s="28"/>
-      <c r="D82" s="8" t="s">
-        <v>33</v>
+      <c r="D82" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H82" s="28"/>
     </row>
     <row r="83" spans="3:8">
-      <c r="C83" s="28" t="s">
-        <v>34</v>
+      <c r="C83" s="28"/>
+      <c r="D83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="H83" s="28"/>
     </row>
     <row r="84" spans="3:8">
       <c r="C84" s="28"/>
-      <c r="D84" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F84" t="s">
-        <v>48</v>
-      </c>
-      <c r="G84" s="23" t="s">
+      <c r="D84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3" t="s">
         <v>80</v>
       </c>
       <c r="H84" s="28"/>
     </row>
     <row r="85" spans="3:8">
       <c r="C85" s="28"/>
-      <c r="D85" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F85" t="s">
-        <v>48</v>
-      </c>
-      <c r="G85" s="23" t="s">
+      <c r="D85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3" t="s">
         <v>80</v>
       </c>
       <c r="H85" s="28"/>
     </row>
     <row r="86" spans="3:8">
       <c r="C86" s="28"/>
-      <c r="D86" s="7" t="s">
-        <v>2</v>
+      <c r="D86" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H86" s="28"/>
     </row>
     <row r="87" spans="3:8">
       <c r="C87" s="28"/>
-      <c r="D87" s="7" t="s">
-        <v>4</v>
+      <c r="D87" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H87" s="28"/>
     </row>
     <row r="88" spans="3:8">
       <c r="C88" s="28"/>
-      <c r="D88" s="2" t="s">
-        <v>9</v>
+      <c r="D88" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H88" s="28"/>
     </row>
     <row r="89" spans="3:8">
       <c r="C89" s="28"/>
-      <c r="D89" s="2" t="s">
-        <v>10</v>
+      <c r="D89" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H89" s="28"/>
     </row>
     <row r="90" spans="3:8">
       <c r="C90" s="28"/>
-      <c r="D90" s="2" t="s">
-        <v>12</v>
+      <c r="D90" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H90" s="28"/>
     </row>
     <row r="91" spans="3:8">
       <c r="C91" s="28"/>
-      <c r="D91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3"/>
+      <c r="D91" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G91" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H91" s="28"/>
     </row>
     <row r="92" spans="3:8">
       <c r="C92" s="28"/>
-      <c r="D92" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F92" s="3"/>
+      <c r="D92" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G92" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H92" s="28"/>
     </row>
     <row r="93" spans="3:8">
       <c r="C93" s="28"/>
-      <c r="D93" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3" t="s">
-        <v>73</v>
+      <c r="D93" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="H93" s="28"/>
     </row>
     <row r="94" spans="3:8">
       <c r="C94" s="28"/>
-      <c r="D94" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3" t="s">
-        <v>73</v>
+      <c r="D94" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="H94" s="28"/>
     </row>
     <row r="95" spans="3:8">
       <c r="C95" s="28"/>
-      <c r="D95" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
       <c r="H95" s="28"/>
-    </row>
-    <row r="96" spans="3:8">
-      <c r="C96" s="28"/>
-      <c r="D96" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H96" s="28"/>
-    </row>
-    <row r="97" spans="3:8">
-      <c r="C97" s="28"/>
-      <c r="D97" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H97" s="28"/>
-    </row>
-    <row r="98" spans="3:8">
-      <c r="C98" s="28"/>
-      <c r="D98" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G98" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H98" s="28"/>
-    </row>
-    <row r="99" spans="3:8">
-      <c r="C99" s="28"/>
-      <c r="D99" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G99" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H99" s="28"/>
-    </row>
-    <row r="100" spans="3:8">
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3852,8 +4154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3868,82 +4170,82 @@
   <sheetData>
     <row r="1" spans="1:10" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -3951,65 +4253,65 @@
         <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4022,17 +4324,17 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="3"/>
       <c r="I13" t="s">
@@ -4044,250 +4346,250 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="B19" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C19" s="14"/>
       <c r="F19" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="34" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C20" s="14"/>
       <c r="F20" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C21" s="14"/>
       <c r="F21" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="B33" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" s="34" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="B38" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="B39" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" s="34" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4295,14 +4597,14 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="2" t="s">
@@ -4311,108 +4613,108 @@
     </row>
     <row r="44" spans="1:8">
       <c r="B44" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" s="21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8">
       <c r="B48" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" s="30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="6" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4420,14 +4722,14 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="2" t="s">
@@ -4436,108 +4738,108 @@
     </row>
     <row r="52" spans="1:8">
       <c r="B52" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" s="21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" s="21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" s="30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8">
       <c r="B56" s="30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" s="30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="6" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4545,14 +4847,14 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="2" t="s">
@@ -4561,118 +4863,118 @@
     </row>
     <row r="60" spans="1:8">
       <c r="B60" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8">
       <c r="B62" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" s="30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8">
       <c r="B64" s="30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:10">
       <c r="B65" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:10">
       <c r="B66" s="30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="3"/>
@@ -4682,19 +4984,19 @@
         <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="6" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4702,14 +5004,14 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="2" t="s">
@@ -4718,31 +5020,31 @@
     </row>
     <row r="70" spans="1:10">
       <c r="B70" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G70" s="14"/>
     </row>
     <row r="71" spans="1:10">
       <c r="B71" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G71" s="14"/>
     </row>
@@ -4756,21 +5058,21 @@
     </row>
     <row r="73" spans="1:10">
       <c r="B73" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G73" s="3"/>
       <c r="I73" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J73" t="s">
         <v>8</v>
@@ -4778,80 +5080,80 @@
     </row>
     <row r="74" spans="1:10">
       <c r="B74" s="32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G74" s="14"/>
     </row>
     <row r="75" spans="1:10">
       <c r="B75" s="32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G75" s="14"/>
     </row>
     <row r="76" spans="1:10">
       <c r="B76" s="21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="B77" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G77" s="14"/>
     </row>
     <row r="78" spans="1:10">
       <c r="B78" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E78" t="s">
         <v>39</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I78" t="s">
         <v>24</v>
@@ -4859,20 +5161,20 @@
     </row>
     <row r="79" spans="1:10">
       <c r="B79" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I79" t="s">
         <v>25</v>
@@ -4881,20 +5183,20 @@
     </row>
     <row r="80" spans="1:10">
       <c r="B80" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E80" t="s">
         <v>40</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I80" t="s">
         <v>26</v>
@@ -4908,16 +5210,16 @@
     </row>
     <row r="82" spans="1:10">
       <c r="B82" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
       </c>
       <c r="I82" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J82" t="s">
         <v>31</v>
@@ -4928,13 +5230,13 @@
         <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
       </c>
       <c r="J83" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4942,564 +5244,1890 @@
         <v>29</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
       </c>
       <c r="J84" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="B85" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E85" t="s">
         <v>41</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="B86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E86" t="s">
         <v>40</v>
       </c>
       <c r="I86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="B88" s="25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="B89" s="25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C89" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" t="s">
+        <v>49</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H89" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="E89" t="s">
-        <v>48</v>
-      </c>
-      <c r="F89" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="B90" s="25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="B91" s="25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="B92" s="26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="B93" s="26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="B94" s="26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="B95" s="26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="B96" s="26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:9">
       <c r="B98" s="25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:9">
       <c r="B99" s="25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:9">
       <c r="B100" s="25" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:9">
       <c r="B101" s="25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:9">
       <c r="A102" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:9">
       <c r="B103" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D103" t="s">
+        <v>149</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="B104" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="37"/>
+      <c r="F104" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="B105" s="3"/>
+      <c r="C105" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="40"/>
+      <c r="F105" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="B106" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D106" s="35"/>
+      <c r="E106" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F106" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G106" s="3"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="B107" s="3"/>
+      <c r="C107" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="35"/>
+      <c r="E107" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F107" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G107" s="3"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="35"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="B108" s="3"/>
+      <c r="C108" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="40"/>
+      <c r="F108" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G108" s="3"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="35"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="B109" s="3"/>
+      <c r="C109" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="40"/>
+      <c r="F109" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="35"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="B110" s="3"/>
+      <c r="C110" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="40"/>
+      <c r="F110" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G110" s="3"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="35"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="B111" s="3"/>
+      <c r="C111" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="40"/>
+      <c r="F111" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="35"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="B112" s="3"/>
+      <c r="C112" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="40"/>
+      <c r="F112" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G112" s="3"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="35"/>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="3"/>
+      <c r="C113" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="40"/>
+      <c r="F113" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="3"/>
+      <c r="C114" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E114" s="40"/>
+      <c r="F114" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="3"/>
+      <c r="C115" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D115" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E115" s="40"/>
+      <c r="F115" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="3"/>
+      <c r="C116" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D116" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E116" s="40"/>
+      <c r="F116" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="3"/>
+      <c r="C117" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" s="40"/>
+      <c r="F117" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="3"/>
+      <c r="C118" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D118" s="35"/>
+      <c r="E118" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="3"/>
+      <c r="C119" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D119" s="35"/>
+      <c r="E119" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="3"/>
+      <c r="C120" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D120" s="35"/>
+      <c r="E120" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F120" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="3"/>
+      <c r="C121" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="49"/>
+      <c r="E121" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F121" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="3"/>
+      <c r="G124" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D149"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="L107" sqref="L107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
         <v>147</v>
       </c>
-      <c r="F103" s="23" t="s">
+      <c r="D1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="B104" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="B105" s="28"/>
-      <c r="C105" s="8" t="s">
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="C56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="C60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="B65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="B70" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="C71" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="B74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="B80" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="B85" t="s">
+        <v>215</v>
+      </c>
+      <c r="C85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D85" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="B89" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="C90" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="B94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="B99" t="s">
+        <v>88</v>
+      </c>
+      <c r="D99" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="C101" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="B104" t="s">
+        <v>216</v>
+      </c>
+      <c r="C104" t="s">
+        <v>85</v>
+      </c>
+      <c r="D104" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s">
+        <v>88</v>
+      </c>
+      <c r="C108" t="s">
+        <v>95</v>
+      </c>
+      <c r="D108" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="C109" t="s">
+        <v>97</v>
+      </c>
+      <c r="D109" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="C110" t="s">
+        <v>96</v>
+      </c>
+      <c r="D110" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="C112" t="s">
+        <v>167</v>
+      </c>
+      <c r="D112" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="B114" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="C115" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="C116" t="s">
+        <v>98</v>
+      </c>
+      <c r="D116" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="C117" t="s">
+        <v>99</v>
+      </c>
+      <c r="D117" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" t="s">
+        <v>85</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="C120" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="B121" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="C126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="C129" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>224</v>
+      </c>
+      <c r="B130" t="s">
+        <v>226</v>
+      </c>
+      <c r="C130" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G105" s="28"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="B106" s="28"/>
-      <c r="C106" s="8" t="s">
+      <c r="D130" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="C131" t="s">
         <v>33</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G106" s="28"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="B107" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G107" s="28"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="B108" s="28"/>
-      <c r="C108" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="D131" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="C132" t="s">
+        <v>85</v>
+      </c>
+      <c r="D132" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="C133" t="s">
+        <v>106</v>
+      </c>
+      <c r="D133" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="C139" t="s">
+        <v>100</v>
+      </c>
+      <c r="D139" t="s">
         <v>48</v>
       </c>
-      <c r="F108" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G108" s="28"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="B109" s="28"/>
-      <c r="C109" s="31" t="s">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="C140" t="s">
+        <v>101</v>
+      </c>
+      <c r="D140" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="C141" t="s">
+        <v>102</v>
+      </c>
+      <c r="D141" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="C142" t="s">
+        <v>103</v>
+      </c>
+      <c r="D142" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="C143" t="s">
+        <v>210</v>
+      </c>
+      <c r="D143" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="C144" t="s">
+        <v>211</v>
+      </c>
+      <c r="D144" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="C145" t="s">
+        <v>94</v>
+      </c>
+      <c r="D145" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="C146" t="s">
         <v>1</v>
       </c>
-      <c r="E109" t="s">
-        <v>48</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G109" s="28"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="B110" s="28"/>
-      <c r="C110" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G110" s="28"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="B111" s="28"/>
-      <c r="C111" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G111" s="28"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="B112" s="28"/>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G112" s="28"/>
-    </row>
-    <row r="113" spans="2:7">
-      <c r="B113" s="28"/>
-      <c r="C113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G113" s="28"/>
-    </row>
-    <row r="114" spans="2:7">
-      <c r="B114" s="28"/>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G114" s="28"/>
-    </row>
-    <row r="115" spans="2:7">
-      <c r="B115" s="28"/>
-      <c r="C115" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G115" s="28"/>
-    </row>
-    <row r="116" spans="2:7">
-      <c r="B116" s="28"/>
-      <c r="C116" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G116" s="28"/>
-    </row>
-    <row r="117" spans="2:7">
-      <c r="B117" s="28"/>
-      <c r="C117" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G117" s="28"/>
-    </row>
-    <row r="118" spans="2:7">
-      <c r="B118" s="28"/>
-      <c r="C118" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G118" s="28"/>
-    </row>
-    <row r="119" spans="2:7">
-      <c r="B119" s="28"/>
-      <c r="C119" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G119" s="28"/>
-    </row>
-    <row r="120" spans="2:7">
-      <c r="B120" s="28"/>
-      <c r="C120" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G120" s="28"/>
-    </row>
-    <row r="121" spans="2:7">
-      <c r="B121" s="28"/>
-      <c r="C121" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G121" s="28"/>
-    </row>
-    <row r="122" spans="2:7">
-      <c r="B122" s="28"/>
-      <c r="C122" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F122" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G122" s="28"/>
-    </row>
-    <row r="123" spans="2:7">
-      <c r="B123" s="28"/>
-      <c r="C123" s="12" t="s">
+      <c r="D146" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="C148" t="s">
         <v>20</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F123" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G123" s="28"/>
-    </row>
-    <row r="124" spans="2:7">
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
+      <c r="D148" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/visOgram.xlsx
+++ b/visOgram.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23880" windowHeight="23560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="18340" yWindow="0" windowWidth="17720" windowHeight="23560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="241">
   <si>
     <t>RELAY</t>
   </si>
@@ -718,6 +718,33 @@
   </si>
   <si>
     <t>TSV</t>
+  </si>
+  <si>
+    <t>directories could be split in directories with ad without authority flag</t>
+  </si>
+  <si>
+    <t>and if they were given out by email, http or other</t>
+  </si>
+  <si>
+    <t>and if they are located in the ec2 cloud</t>
+  </si>
+  <si>
+    <t>bridges could be split in pluggable transports obfs2, obfs3, both,none</t>
+  </si>
+  <si>
+    <t>which makes 4x3x2 = 24 permutations for bridges</t>
+  </si>
+  <si>
+    <t>every exit entry could be split up into the 3 exit port s permitted: 80, 443, 6667</t>
+  </si>
+  <si>
+    <t>filter out nodes below a certain bw treshold</t>
+  </si>
+  <si>
+    <t>how about guard+!badexit?</t>
+  </si>
+  <si>
+    <t>but how would we do that?</t>
   </si>
 </sst>
 </file>
@@ -5828,15 +5855,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L107" sqref="L107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>146</v>
       </c>
@@ -5846,8 +5873,11 @@
       <c r="D1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>228</v>
       </c>
@@ -5855,15 +5885,18 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>148</v>
       </c>
       <c r="D3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -5874,15 +5907,18 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>85</v>
       </c>
       <c r="D5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>106</v>
       </c>
@@ -5890,39 +5926,51 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>88</v>
       </c>
       <c r="D10" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="14"/>
       <c r="B11" s="14" t="s">
         <v>93</v>
@@ -5932,7 +5980,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="B12" t="s">
         <v>215</v>
       </c>
@@ -5942,16 +5990,22 @@
       <c r="D12" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="C13" t="s">
         <v>106</v>
       </c>
       <c r="D13" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -5959,7 +6013,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -5967,7 +6021,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>216</v>
       </c>

--- a/visOgram.xlsx
+++ b/visOgram.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18340" yWindow="0" windowWidth="17720" windowHeight="23560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="24340" yWindow="0" windowWidth="17720" windowHeight="23560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="253">
   <si>
     <t>RELAY</t>
   </si>
@@ -129,6 +129,9 @@
     <t>relays</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>// pex</t>
   </si>
   <si>
@@ -720,21 +723,6 @@
     <t>TSV</t>
   </si>
   <si>
-    <t>directories could be split in directories with ad without authority flag</t>
-  </si>
-  <si>
-    <t>and if they were given out by email, http or other</t>
-  </si>
-  <si>
-    <t>and if they are located in the ec2 cloud</t>
-  </si>
-  <si>
-    <t>bridges could be split in pluggable transports obfs2, obfs3, both,none</t>
-  </si>
-  <si>
-    <t>which makes 4x3x2 = 24 permutations for bridges</t>
-  </si>
-  <si>
     <t>every exit entry could be split up into the 3 exit port s permitted: 80, 443, 6667</t>
   </si>
   <si>
@@ -745,6 +733,54 @@
   </si>
   <si>
     <t>but how would we do that?</t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t>ge</t>
+  </si>
+  <si>
+    <t>gd</t>
+  </si>
+  <si>
+    <t>gme</t>
+  </si>
+  <si>
+    <t>gmd</t>
+  </si>
+  <si>
+    <t>ged</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>md</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>combinations of relay types and flags</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>1 2 3</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>2 3</t>
   </si>
 </sst>
 </file>
@@ -1055,8 +1091,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="227">
+  <cellStyleXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1338,7 +1390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="227">
+  <cellStyles count="243">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1452,6 +1504,14 @@
     <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1565,6 +1625,14 @@
     <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1897,7 +1965,7 @@
   <dimension ref="B1:K58"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H44" sqref="A1:XFD1048576"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1911,31 +1979,31 @@
   <sheetData>
     <row r="1" spans="2:11" s="11" customFormat="1">
       <c r="B1" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="2:11">
@@ -1945,20 +2013,20 @@
     </row>
     <row r="3" spans="2:11">
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" t="s">
@@ -1967,23 +2035,23 @@
     </row>
     <row r="4" spans="2:11">
       <c r="C4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -1991,17 +2059,17 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -2009,20 +2077,20 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" s="3">
         <v>100</v>
       </c>
       <c r="H6" s="3"/>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -2030,19 +2098,19 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -2050,24 +2118,24 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I9" s="3"/>
     </row>
@@ -2090,28 +2158,28 @@
     </row>
     <row r="12" spans="2:11">
       <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -2119,23 +2187,23 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -2143,20 +2211,20 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s">
         <v>11</v>
@@ -2167,20 +2235,20 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s">
         <v>13</v>
@@ -2191,20 +2259,20 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s">
         <v>15</v>
@@ -2212,86 +2280,86 @@
     </row>
     <row r="17" spans="2:11">
       <c r="C17" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="C18" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="C19" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="C20" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -2299,16 +2367,16 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -2317,34 +2385,34 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:11">
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -2361,42 +2429,42 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="C27" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s">
         <v>24</v>
@@ -2404,22 +2472,22 @@
     </row>
     <row r="28" spans="2:11">
       <c r="C28" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J28" t="s">
         <v>25</v>
@@ -2428,22 +2496,22 @@
     </row>
     <row r="29" spans="2:11">
       <c r="C29" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J29" t="s">
         <v>26</v>
@@ -2460,16 +2528,16 @@
         <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="2:10">
@@ -2477,7 +2545,7 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
@@ -2487,30 +2555,30 @@
     </row>
     <row r="34" spans="2:10">
       <c r="C34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="C35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -2528,7 +2596,7 @@
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
@@ -2539,7 +2607,7 @@
         <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -2552,7 +2620,7 @@
     </row>
     <row r="42" spans="2:10">
       <c r="C42" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D42" s="12"/>
     </row>
@@ -2613,25 +2681,25 @@
     </row>
     <row r="51" spans="3:11">
       <c r="C51" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D51" s="12"/>
     </row>
     <row r="52" spans="3:11">
       <c r="C52" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D52" s="12"/>
     </row>
     <row r="53" spans="3:11">
       <c r="C53" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D53" s="12"/>
     </row>
     <row r="54" spans="3:11">
       <c r="C54" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D54" s="12"/>
     </row>
@@ -2649,12 +2717,12 @@
     </row>
     <row r="57" spans="3:11">
       <c r="C57" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="3:11">
       <c r="C58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
@@ -2675,7 +2743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K95"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
@@ -2691,139 +2759,139 @@
   <sheetData>
     <row r="1" spans="2:11" s="11" customFormat="1">
       <c r="B1" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="C3" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="C4" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="C6" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="C7" s="31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="C8" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -2831,21 +2899,21 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
         <v>34</v>
@@ -2853,125 +2921,125 @@
     </row>
     <row r="11" spans="2:11">
       <c r="C11" s="31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="C12" s="31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="C13" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="C14" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="C15" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="C16" s="30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="3:11">
       <c r="C17" s="30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="3:11">
       <c r="C18" s="30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="3"/>
@@ -2981,120 +3049,120 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="3:11">
       <c r="C20" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="3:11">
       <c r="C24" s="30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="3:11">
       <c r="C25" s="30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
@@ -3104,18 +3172,18 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s">
         <v>11</v>
@@ -3123,101 +3191,101 @@
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="3:11">
       <c r="C29" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="3:11">
       <c r="C30" s="30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="3:11">
       <c r="C31" s="30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="3:11">
       <c r="C32" s="30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="3"/>
@@ -3227,18 +3295,18 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s">
         <v>13</v>
@@ -3246,118 +3314,118 @@
     </row>
     <row r="34" spans="2:11">
       <c r="C34" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="2:11">
       <c r="C35" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:11">
       <c r="C36" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="2:11">
       <c r="C37" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="2:11">
       <c r="C38" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="2:11">
       <c r="C39" s="30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="2:11">
       <c r="C40" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="3"/>
@@ -3367,13 +3435,13 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" s="14"/>
     </row>
@@ -3382,18 +3450,18 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s">
         <v>15</v>
@@ -3401,34 +3469,34 @@
     </row>
     <row r="43" spans="2:11">
       <c r="C43" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" s="14"/>
       <c r="K43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="2:11">
       <c r="C44" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" s="14"/>
     </row>
@@ -3437,21 +3505,21 @@
         <v>23</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H45" s="3"/>
       <c r="J45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K45" t="s">
         <v>8</v>
@@ -3459,80 +3527,80 @@
     </row>
     <row r="46" spans="2:11">
       <c r="C46" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="2:11">
       <c r="C47" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H47" s="14"/>
     </row>
     <row r="48" spans="2:11">
       <c r="C48" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="C49" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="2:11">
       <c r="C50" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J50" t="s">
         <v>24</v>
@@ -3540,20 +3608,20 @@
     </row>
     <row r="51" spans="2:11">
       <c r="C51" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" t="s">
         <v>5</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J51" t="s">
         <v>25</v>
@@ -3562,20 +3630,20 @@
     </row>
     <row r="52" spans="2:11">
       <c r="C52" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J52" t="s">
         <v>26</v>
@@ -3586,16 +3654,16 @@
         <v>27</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E53" t="s">
         <v>5</v>
       </c>
       <c r="J53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K53" t="s">
         <v>31</v>
@@ -3606,13 +3674,13 @@
         <v>28</v>
       </c>
       <c r="D54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E54" t="s">
         <v>5</v>
       </c>
       <c r="K54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="2:11">
@@ -3620,274 +3688,274 @@
         <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
       </c>
       <c r="K55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="2:11">
       <c r="C56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="2:11">
       <c r="C57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="C61" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I61" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="F61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G61" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="C62" s="25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="2:11">
       <c r="C63" s="25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="C64" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="C65" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="C66" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="C67" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="C68" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="C69" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I69" s="9"/>
     </row>
     <row r="70" spans="2:9">
       <c r="C70" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I70" s="9"/>
     </row>
     <row r="71" spans="2:9">
       <c r="C71" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="2:9">
       <c r="C72" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I72" s="9"/>
     </row>
     <row r="73" spans="2:9">
       <c r="C73" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I73" s="9"/>
     </row>
@@ -3900,11 +3968,11 @@
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H76" s="28"/>
     </row>
@@ -3920,7 +3988,7 @@
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H77" s="28"/>
     </row>
@@ -3934,7 +4002,7 @@
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H78" s="28"/>
     </row>
@@ -3943,13 +4011,13 @@
         <v>34</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H79" s="28"/>
     </row>
@@ -3959,10 +4027,10 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H80" s="28"/>
     </row>
@@ -3976,7 +4044,7 @@
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H81" s="28"/>
     </row>
@@ -3990,7 +4058,7 @@
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H82" s="28"/>
     </row>
@@ -4004,7 +4072,7 @@
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H83" s="28"/>
     </row>
@@ -4018,7 +4086,7 @@
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H84" s="28"/>
     </row>
@@ -4032,7 +4100,7 @@
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H85" s="28"/>
     </row>
@@ -4046,102 +4114,102 @@
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H86" s="28"/>
     </row>
     <row r="87" spans="3:8">
       <c r="C87" s="28"/>
       <c r="D87" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H87" s="28"/>
     </row>
     <row r="88" spans="3:8">
       <c r="C88" s="28"/>
       <c r="D88" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H88" s="28"/>
     </row>
     <row r="89" spans="3:8">
       <c r="C89" s="28"/>
       <c r="D89" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H89" s="28"/>
     </row>
     <row r="90" spans="3:8">
       <c r="C90" s="28"/>
       <c r="D90" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H90" s="28"/>
     </row>
     <row r="91" spans="3:8">
       <c r="C91" s="28"/>
       <c r="D91" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H91" s="28"/>
     </row>
     <row r="92" spans="3:8">
       <c r="C92" s="28"/>
       <c r="D92" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H92" s="28"/>
     </row>
     <row r="93" spans="3:8">
       <c r="C93" s="28"/>
       <c r="D93" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G93" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H93" s="28"/>
     </row>
@@ -4151,10 +4219,10 @@
         <v>20</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H94" s="28"/>
     </row>
@@ -4197,148 +4265,148 @@
   <sheetData>
     <row r="1" spans="1:10" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4351,21 +4419,21 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="3"/>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
         <v>34</v>
@@ -4373,250 +4441,250 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="B19" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" s="14"/>
       <c r="F19" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" s="14"/>
       <c r="F20" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C21" s="14"/>
       <c r="F21" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="B33" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="B38" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="B39" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" s="34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4624,124 +4692,124 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" s="30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8">
       <c r="B48" s="30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" s="30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4749,124 +4817,124 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" s="30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8">
       <c r="B56" s="30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" s="30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4874,134 +4942,134 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="B60" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8">
       <c r="B62" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8">
       <c r="B64" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:10">
       <c r="B65" s="30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:10">
       <c r="B66" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="3"/>
@@ -5011,19 +5079,19 @@
         <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -5031,47 +5099,47 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="B70" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G70" s="14"/>
     </row>
     <row r="71" spans="1:10">
       <c r="B71" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G71" s="14"/>
     </row>
@@ -5085,21 +5153,21 @@
     </row>
     <row r="73" spans="1:10">
       <c r="B73" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G73" s="3"/>
       <c r="I73" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J73" t="s">
         <v>8</v>
@@ -5107,80 +5175,80 @@
     </row>
     <row r="74" spans="1:10">
       <c r="B74" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G74" s="14"/>
     </row>
     <row r="75" spans="1:10">
       <c r="B75" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G75" s="14"/>
     </row>
     <row r="76" spans="1:10">
       <c r="B76" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="B77" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G77" s="14"/>
     </row>
     <row r="78" spans="1:10">
       <c r="B78" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I78" t="s">
         <v>24</v>
@@ -5188,20 +5256,20 @@
     </row>
     <row r="79" spans="1:10">
       <c r="B79" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I79" t="s">
         <v>25</v>
@@ -5210,20 +5278,20 @@
     </row>
     <row r="80" spans="1:10">
       <c r="B80" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I80" t="s">
         <v>26</v>
@@ -5237,16 +5305,16 @@
     </row>
     <row r="82" spans="1:10">
       <c r="B82" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
       </c>
       <c r="I82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J82" t="s">
         <v>31</v>
@@ -5257,13 +5325,13 @@
         <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
       </c>
       <c r="J83" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -5271,276 +5339,276 @@
         <v>29</v>
       </c>
       <c r="C84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
       </c>
       <c r="J84" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="B85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="B86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="B88" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="B89" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C89" t="s">
+        <v>61</v>
+      </c>
+      <c r="E89" t="s">
+        <v>50</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H89" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="E89" t="s">
-        <v>49</v>
-      </c>
-      <c r="F89" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="B90" s="25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="B91" s="25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="B92" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="B93" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="B94" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="B95" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="B96" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="B97" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H97" s="9"/>
     </row>
     <row r="98" spans="1:9">
       <c r="B98" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C98" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H98" s="9"/>
     </row>
     <row r="99" spans="1:9">
       <c r="B99" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H99" s="9"/>
     </row>
     <row r="100" spans="1:9">
       <c r="B100" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H100" s="9"/>
     </row>
     <row r="101" spans="1:9">
       <c r="B101" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H101" s="9"/>
     </row>
@@ -5554,10 +5622,10 @@
         <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5572,7 +5640,7 @@
       </c>
       <c r="E104" s="37"/>
       <c r="F104" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G104" s="3"/>
     </row>
@@ -5586,7 +5654,7 @@
       </c>
       <c r="E105" s="40"/>
       <c r="F105" s="41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G105" s="3"/>
     </row>
@@ -5595,14 +5663,14 @@
         <v>34</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F106" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="35"/>
@@ -5615,10 +5683,10 @@
       </c>
       <c r="D107" s="35"/>
       <c r="E107" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F107" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="35"/>
@@ -5634,7 +5702,7 @@
       </c>
       <c r="E108" s="40"/>
       <c r="F108" s="41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="35"/>
@@ -5650,7 +5718,7 @@
       </c>
       <c r="E109" s="40"/>
       <c r="F109" s="41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="35"/>
@@ -5666,7 +5734,7 @@
       </c>
       <c r="E110" s="40"/>
       <c r="F110" s="41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="35"/>
@@ -5682,7 +5750,7 @@
       </c>
       <c r="E111" s="40"/>
       <c r="F111" s="41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="35"/>
@@ -5698,7 +5766,7 @@
       </c>
       <c r="E112" s="40"/>
       <c r="F112" s="41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="35"/>
@@ -5714,105 +5782,105 @@
       </c>
       <c r="E113" s="40"/>
       <c r="F113" s="41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="3"/>
       <c r="C114" s="46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E114" s="40"/>
       <c r="F114" s="41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="2:7">
       <c r="B115" s="3"/>
       <c r="C115" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E115" s="40"/>
       <c r="F115" s="41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="3"/>
       <c r="C116" s="46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E116" s="40"/>
       <c r="F116" s="41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G116" s="3"/>
     </row>
     <row r="117" spans="2:7">
       <c r="B117" s="3"/>
       <c r="C117" s="46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E117" s="40"/>
       <c r="F117" s="41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G117" s="3"/>
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="3"/>
       <c r="C118" s="47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D118" s="35"/>
       <c r="E118" s="40" t="s">
         <v>5</v>
       </c>
       <c r="F118" s="41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G118" s="3"/>
     </row>
     <row r="119" spans="2:7">
       <c r="B119" s="3"/>
       <c r="C119" s="47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D119" s="35"/>
       <c r="E119" s="40" t="s">
         <v>5</v>
       </c>
       <c r="F119" s="41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G119" s="3"/>
     </row>
     <row r="120" spans="2:7">
       <c r="B120" s="3"/>
       <c r="C120" s="47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F120" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G120" s="3"/>
     </row>
@@ -5823,10 +5891,10 @@
       </c>
       <c r="D121" s="49"/>
       <c r="E121" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F121" s="51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G121" s="3"/>
     </row>
@@ -5855,75 +5923,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F5" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5931,10 +5996,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5942,10 +6004,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5953,56 +6012,50 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
-      </c>
-      <c r="F10" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="14"/>
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6010,7 +6063,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6018,440 +6071,536 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="C17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>218</v>
+      </c>
+      <c r="F25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="B26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>218</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="B27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>218</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="C28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>218</v>
+      </c>
+      <c r="F28" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>218</v>
+      </c>
+      <c r="F29" t="s">
+        <v>240</v>
+      </c>
+      <c r="H29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+      <c r="H30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" t="s">
-        <v>216</v>
-      </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>218</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="C32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>218</v>
+      </c>
+      <c r="F32" t="s">
+        <v>243</v>
+      </c>
+      <c r="H32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>218</v>
+      </c>
+      <c r="E33" t="s">
+        <v>248</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D35" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>218</v>
+      </c>
+      <c r="E35" t="s">
+        <v>249</v>
+      </c>
+      <c r="F35">
+        <v>28</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>218</v>
+      </c>
+      <c r="H36">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="B37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="C43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="B46" t="s">
-        <v>216</v>
-      </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="C47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="C48" t="s">
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="B51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="B52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="B53" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="B55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="C56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="C57" t="s">
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="B59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="F59" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="C60" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="F60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="F61" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B63" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>219</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="B64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="B65" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -6459,7 +6608,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6467,7 +6616,7 @@
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -6475,34 +6624,34 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="B69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="B70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="C71" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D71" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -6510,7 +6659,7 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6518,26 +6667,26 @@
         <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="B74" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="C75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -6545,7 +6694,7 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -6553,34 +6702,34 @@
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B78" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="B79" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="B80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -6588,7 +6737,7 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -6596,7 +6745,7 @@
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -6604,34 +6753,34 @@
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="B84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="B85" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="C86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -6639,7 +6788,7 @@
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6647,26 +6796,26 @@
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="B89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="C90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -6674,7 +6823,7 @@
         <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -6682,34 +6831,34 @@
         <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="B94" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="B95" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -6717,7 +6866,7 @@
         <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -6725,7 +6874,7 @@
         <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -6733,34 +6882,34 @@
         <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="B99" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D99" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="B100" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C100" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="C101" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D101" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6768,7 +6917,7 @@
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -6776,26 +6925,26 @@
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="B104" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C104" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D104" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="C105" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D105" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -6803,7 +6952,7 @@
         <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -6811,37 +6960,37 @@
         <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B108" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C108" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D108" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="C109" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D109" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="C110" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D110" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6852,335 +7001,327 @@
         <v>20</v>
       </c>
       <c r="D111" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:4">
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
       <c r="C112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D112" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="B113" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" t="s">
-        <v>165</v>
+        <v>94</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="B114" t="s">
-        <v>93</v>
-      </c>
       <c r="C114" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D114" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="C115" s="14" t="s">
-        <v>28</v>
+      <c r="C115" t="s">
+        <v>99</v>
       </c>
       <c r="D115" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="C116" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D116" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" t="s">
+        <v>86</v>
+      </c>
       <c r="C117" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>126</v>
-      </c>
-      <c r="B118" t="s">
-        <v>85</v>
-      </c>
       <c r="C118" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="C119" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="B120" t="s">
+        <v>107</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="C121" t="s">
         <v>4</v>
       </c>
-      <c r="D119" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="C120" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="B121" t="s">
-        <v>106</v>
-      </c>
-      <c r="C121" t="s">
-        <v>2</v>
-      </c>
       <c r="D121" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="C124" t="s">
         <v>4</v>
       </c>
-      <c r="D122" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="C123" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="B124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" t="s">
-        <v>2</v>
-      </c>
       <c r="D124" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="C125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="C127" t="s">
         <v>4</v>
       </c>
-      <c r="D125" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="C126" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="B127" t="s">
-        <v>13</v>
-      </c>
-      <c r="C127" t="s">
-        <v>2</v>
-      </c>
       <c r="D127" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="C128" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D128" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>225</v>
+      </c>
+      <c r="B129" t="s">
+        <v>227</v>
+      </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D129" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>224</v>
-      </c>
-      <c r="B130" t="s">
-        <v>226</v>
-      </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D130" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="C131" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D131" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="C132" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="D132" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="C133" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="C134" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D134" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="C135" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="C136" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="C137" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D137" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="C138" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="D138" t="s">
-        <v>217</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="C139" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="C140" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="C141" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="C142" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="D142" t="s">
-        <v>48</v>
+        <v>218</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="C143" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D143" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="C144" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="D144" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="145" spans="2:4">
       <c r="C145" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146" spans="2:4">
       <c r="C146" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D146" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="147" spans="2:4">
       <c r="C147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D147" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="148" spans="2:4">
-      <c r="C148" t="s">
-        <v>20</v>
-      </c>
-      <c r="D148" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4">
-      <c r="B149" t="s">
-        <v>227</v>
+      <c r="B148" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
